--- a/SwCenter Estimate.xlsx
+++ b/SwCenter Estimate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangb2\Documents\Project\DMS Conversion Dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangb2\Documents\GitHub\DMS_Conversion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55FCFE4-7ACC-4CBA-BCE0-9AB9B47FA180}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0163BF5B-2ADF-4834-9BD5-E276A07F0241}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15525" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15525" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SAT_Subs" sheetId="6" r:id="rId1"/>
@@ -44,28 +44,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={0107D284-917C-4280-B732-89B4F0DA8EE7}</author>
     <author>tc={4B71DF37-0964-4C7D-B0CD-437C9D6A22D8}</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{0107D284-917C-4280-B732-89B4F0DA8EE7}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Irvine - 3297
-Macarthur - 1200
-Crown - 1537
-Borrego - 3286
-Morro - 3300
-Niguel - 3478
-Moulton - 4202
-Las Lomas - 4301
-University - 1848
-Chip - 1824</t>
-      </text>
-    </comment>
-    <comment ref="C10" authorId="1" shapeId="0" xr:uid="{4B71DF37-0964-4C7D-B0CD-437C9D6A22D8}">
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{4B71DF37-0964-4C7D-B0CD-437C9D6A22D8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -3443,9 +3425,6 @@
     <t>Devers</t>
   </si>
   <si>
-    <t>10 stations</t>
-  </si>
-  <si>
     <t>2-3 weeks</t>
   </si>
   <si>
@@ -3507,6 +3486,9 @@
   </si>
   <si>
     <t>Hanford 12</t>
+  </si>
+  <si>
+    <t>4129/503</t>
   </si>
 </sst>
 </file>
@@ -3885,18 +3867,6 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C3" dT="2021-02-09T17:22:52.80" personId="{7400B710-C1BF-499B-99C7-ED63E55E21A1}" id="{0107D284-917C-4280-B732-89B4F0DA8EE7}">
-    <text>Irvine - 3297
-Macarthur - 1200
-Crown - 1537
-Borrego - 3286
-Morro - 3300
-Niguel - 3478
-Moulton - 4202
-Las Lomas - 4301
-University - 1848
-Chip - 1824</text>
-  </threadedComment>
   <threadedComment ref="C10" dT="2021-02-09T17:23:31.87" personId="{7400B710-C1BF-499B-99C7-ED63E55E21A1}" id="{4B71DF37-0964-4C7D-B0CD-437C9D6A22D8}">
     <text>Irvine - 3297
 Macarthur - 1200
@@ -4483,10 +4453,10 @@
         <v>11</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="G2" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -4503,7 +4473,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -4524,7 +4494,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -4541,7 +4511,7 @@
         <v>14</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -4558,7 +4528,7 @@
         <v>15</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -4575,7 +4545,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -4592,7 +4562,7 @@
         <v>15</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -4609,7 +4579,7 @@
         <v>16</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -4755,8 +4725,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4796,7 +4766,7 @@
         <v>1041</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>1118</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4968,7 +4938,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -5008,7 +4978,7 @@
         <v>1057</v>
       </c>
       <c r="C29" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -5016,7 +4986,7 @@
         <v>1059</v>
       </c>
       <c r="C30" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -5040,15 +5010,15 @@
         <v>1112</v>
       </c>
       <c r="C33" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C34" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -5056,7 +5026,7 @@
         <v>1110</v>
       </c>
       <c r="C35" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -5072,7 +5042,7 @@
         <v>1109</v>
       </c>
       <c r="C37" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -5088,7 +5058,7 @@
         <v>1104</v>
       </c>
       <c r="C39" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -5101,7 +5071,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -6029,8 +5999,8 @@
   <sheetPr codeName="Sheet4" filterMode="1"/>
   <dimension ref="A1:C918"/>
   <sheetViews>
-    <sheetView topLeftCell="A863" workbookViewId="0">
-      <selection activeCell="C892" sqref="C892"/>
+    <sheetView topLeftCell="A503" workbookViewId="0">
+      <selection activeCell="A532" sqref="A532"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11463,7 +11433,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="494" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" s="2" t="s">
         <v>201</v>
       </c>
@@ -11474,7 +11444,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="495" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" s="2" t="s">
         <v>216</v>
       </c>
@@ -11485,7 +11455,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="496" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" s="2" t="s">
         <v>234</v>
       </c>
@@ -11496,7 +11466,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="497" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" s="2" t="s">
         <v>17</v>
       </c>
@@ -11507,7 +11477,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="498" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" s="2" t="s">
         <v>240</v>
       </c>
@@ -11518,7 +11488,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="499" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" s="2" t="s">
         <v>43</v>
       </c>
@@ -11540,7 +11510,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="501" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" s="2" t="s">
         <v>281</v>
       </c>
@@ -11551,7 +11521,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="502" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" s="2" t="s">
         <v>287</v>
       </c>
@@ -11562,7 +11532,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="503" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" s="2" t="s">
         <v>294</v>
       </c>
@@ -11584,7 +11554,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="505" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" s="2" t="s">
         <v>298</v>
       </c>
@@ -11595,7 +11565,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="506" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" s="2" t="s">
         <v>301</v>
       </c>
@@ -11606,7 +11576,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="507" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" s="2" t="s">
         <v>307</v>
       </c>
@@ -11617,7 +11587,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="508" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" s="2" t="s">
         <v>309</v>
       </c>
@@ -11628,7 +11598,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="509" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" s="2" t="s">
         <v>319</v>
       </c>
@@ -11639,7 +11609,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="510" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" s="2" t="s">
         <v>328</v>
       </c>
@@ -11650,7 +11620,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="511" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" s="2" t="s">
         <v>340</v>
       </c>
@@ -11661,7 +11631,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="512" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" s="2" t="s">
         <v>48</v>
       </c>
@@ -11672,7 +11642,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="513" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" s="2" t="s">
         <v>361</v>
       </c>
@@ -11683,7 +11653,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="514" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" s="2" t="s">
         <v>367</v>
       </c>
@@ -11694,7 +11664,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="515" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" s="2" t="s">
         <v>393</v>
       </c>
@@ -11705,7 +11675,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="516" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" s="2" t="s">
         <v>404</v>
       </c>
@@ -11727,7 +11697,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="518" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" s="2" t="s">
         <v>449</v>
       </c>
@@ -11738,7 +11708,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="519" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" s="2" t="s">
         <v>450</v>
       </c>
@@ -11749,7 +11719,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="520" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" s="2" t="s">
         <v>241</v>
       </c>
@@ -11760,7 +11730,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="521" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" s="2" t="s">
         <v>462</v>
       </c>
@@ -11782,7 +11752,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="523" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" s="2" t="s">
         <v>470</v>
       </c>
@@ -11793,7 +11763,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="524" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" s="2" t="s">
         <v>476</v>
       </c>
@@ -11804,7 +11774,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="525" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" s="2" t="s">
         <v>494</v>
       </c>
@@ -11815,7 +11785,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="526" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" s="2" t="s">
         <v>496</v>
       </c>
@@ -11826,7 +11796,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="527" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" s="2" t="s">
         <v>509</v>
       </c>
@@ -11837,7 +11807,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="528" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" s="2" t="s">
         <v>510</v>
       </c>
@@ -11859,7 +11829,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="530" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" s="2" t="s">
         <v>530</v>
       </c>
@@ -11881,7 +11851,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="532" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" s="2" t="s">
         <v>572</v>
       </c>
@@ -11914,7 +11884,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="535" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" s="2" t="s">
         <v>296</v>
       </c>
@@ -11936,7 +11906,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="537" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" s="2" t="s">
         <v>611</v>
       </c>
@@ -11947,7 +11917,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="538" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" s="2" t="s">
         <v>613</v>
       </c>
@@ -11958,7 +11928,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="539" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" s="2" t="s">
         <v>614</v>
       </c>
@@ -11969,7 +11939,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="540" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540" s="2" t="s">
         <v>616</v>
       </c>
@@ -11980,7 +11950,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="541" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541" s="2" t="s">
         <v>620</v>
       </c>
@@ -11991,7 +11961,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="542" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542" s="2" t="s">
         <v>635</v>
       </c>
@@ -12013,7 +11983,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="544" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544" s="2" t="s">
         <v>655</v>
       </c>
@@ -12035,7 +12005,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="546" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546" s="2" t="s">
         <v>665</v>
       </c>
@@ -12046,7 +12016,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="547" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547" s="2" t="s">
         <v>688</v>
       </c>
@@ -12057,7 +12027,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="548" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548" s="2" t="s">
         <v>702</v>
       </c>
@@ -12068,7 +12038,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="549" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549" s="2" t="s">
         <v>703</v>
       </c>
@@ -12079,7 +12049,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="550" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550" s="2" t="s">
         <v>727</v>
       </c>
@@ -12090,7 +12060,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="551" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551" s="2" t="s">
         <v>748</v>
       </c>
@@ -12101,7 +12071,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="552" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552" s="2" t="s">
         <v>288</v>
       </c>
@@ -12112,7 +12082,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="553" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553" s="2" t="s">
         <v>754</v>
       </c>
@@ -12123,7 +12093,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="554" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554" s="2" t="s">
         <v>756</v>
       </c>
@@ -12134,7 +12104,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="555" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555" s="2" t="s">
         <v>87</v>
       </c>
@@ -12145,7 +12115,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="556" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556" s="2" t="s">
         <v>772</v>
       </c>
@@ -12156,7 +12126,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="557" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" s="2" t="s">
         <v>775</v>
       </c>
@@ -12167,7 +12137,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="558" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" s="2" t="s">
         <v>795</v>
       </c>
@@ -12178,7 +12148,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="559" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559" s="2" t="s">
         <v>138</v>
       </c>
@@ -12189,7 +12159,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="560" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560" s="2" t="s">
         <v>202</v>
       </c>
@@ -12200,7 +12170,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="561" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561" s="2" t="s">
         <v>877</v>
       </c>
@@ -12211,7 +12181,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="562" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562" s="2" t="s">
         <v>890</v>
       </c>
@@ -12222,7 +12192,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="563" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563" s="2" t="s">
         <v>141</v>
       </c>
@@ -12244,7 +12214,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="565" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565" s="2" t="s">
         <v>913</v>
       </c>
@@ -12255,7 +12225,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="566" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566" s="2" t="s">
         <v>917</v>
       </c>
@@ -12266,7 +12236,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="567" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567" s="2" t="s">
         <v>922</v>
       </c>
@@ -12277,7 +12247,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="568" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568" s="2" t="s">
         <v>926</v>
       </c>
@@ -12288,7 +12258,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="569" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569" s="2" t="s">
         <v>929</v>
       </c>
@@ -12299,7 +12269,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="570" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570" s="2" t="s">
         <v>949</v>
       </c>
@@ -12310,7 +12280,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="571" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571" s="2" t="s">
         <v>968</v>
       </c>
@@ -12321,7 +12291,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="572" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572" s="2" t="s">
         <v>280</v>
       </c>
@@ -12332,7 +12302,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="573" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573" s="2" t="s">
         <v>973</v>
       </c>
@@ -12354,7 +12324,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="575" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575" s="2" t="s">
         <v>980</v>
       </c>
@@ -12365,7 +12335,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="576" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A576" s="2" t="s">
         <v>983</v>
       </c>
@@ -12398,7 +12368,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="579" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579" s="2" t="s">
         <v>1007</v>
       </c>
@@ -15291,7 +15261,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="842" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A842" s="2" t="s">
         <v>177</v>
       </c>
@@ -15302,7 +15272,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="843" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A843" s="2" t="s">
         <v>185</v>
       </c>
@@ -15313,7 +15283,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="844" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A844" s="2" t="s">
         <v>190</v>
       </c>
@@ -15324,7 +15294,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="845" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A845" s="2" t="s">
         <v>205</v>
       </c>
@@ -15335,7 +15305,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="846" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A846" s="2" t="s">
         <v>208</v>
       </c>
@@ -15346,7 +15316,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="847" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A847" s="2" t="s">
         <v>210</v>
       </c>
@@ -15357,7 +15327,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="848" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A848" s="2" t="s">
         <v>242</v>
       </c>
@@ -15368,7 +15338,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="849" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A849" s="2" t="s">
         <v>248</v>
       </c>
@@ -15379,7 +15349,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="850" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A850" s="2" t="s">
         <v>270</v>
       </c>
@@ -15390,7 +15360,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="851" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A851" s="2" t="s">
         <v>271</v>
       </c>
@@ -15401,7 +15371,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="852" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A852" s="2" t="s">
         <v>299</v>
       </c>
@@ -15412,7 +15382,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="853" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A853" s="2" t="s">
         <v>306</v>
       </c>
@@ -15423,7 +15393,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="854" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A854" s="2" t="s">
         <v>316</v>
       </c>
@@ -15434,7 +15404,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="855" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A855" s="2" t="s">
         <v>323</v>
       </c>
@@ -15445,7 +15415,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="856" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A856" s="2" t="s">
         <v>18</v>
       </c>
@@ -15456,7 +15426,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="857" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A857" s="2" t="s">
         <v>336</v>
       </c>
@@ -15467,7 +15437,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="858" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A858" s="2" t="s">
         <v>353</v>
       </c>
@@ -15478,7 +15448,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="859" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A859" s="2" t="s">
         <v>363</v>
       </c>
@@ -15489,7 +15459,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="860" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A860" s="2" t="s">
         <v>382</v>
       </c>
@@ -15500,7 +15470,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="861" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A861" s="2" t="s">
         <v>386</v>
       </c>
@@ -15511,7 +15481,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="862" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A862" s="2" t="s">
         <v>394</v>
       </c>
@@ -15522,7 +15492,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="863" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A863" s="2" t="s">
         <v>396</v>
       </c>
@@ -15533,7 +15503,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="864" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A864" s="2" t="s">
         <v>405</v>
       </c>
@@ -15544,7 +15514,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="865" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A865" s="2" t="s">
         <v>413</v>
       </c>
@@ -15555,7 +15525,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="866" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A866" s="2" t="s">
         <v>417</v>
       </c>
@@ -15566,7 +15536,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="867" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A867" s="2" t="s">
         <v>420</v>
       </c>
@@ -15577,7 +15547,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="868" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A868" s="2" t="s">
         <v>452</v>
       </c>
@@ -15588,7 +15558,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="869" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A869" s="2" t="s">
         <v>178</v>
       </c>
@@ -15599,7 +15569,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="870" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A870" s="2" t="s">
         <v>484</v>
       </c>
@@ -15610,7 +15580,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="871" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A871" s="2" t="s">
         <v>487</v>
       </c>
@@ -15621,7 +15591,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="872" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A872" s="2" t="s">
         <v>124</v>
       </c>
@@ -15632,7 +15602,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="873" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A873" s="2" t="s">
         <v>507</v>
       </c>
@@ -15643,7 +15613,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="874" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A874" s="2" t="s">
         <v>511</v>
       </c>
@@ -15654,7 +15624,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="875" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A875" s="2" t="s">
         <v>523</v>
       </c>
@@ -15665,7 +15635,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="876" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A876" s="2" t="s">
         <v>547</v>
       </c>
@@ -15676,7 +15646,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="877" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A877" s="2" t="s">
         <v>548</v>
       </c>
@@ -15687,7 +15657,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="878" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A878" s="2" t="s">
         <v>551</v>
       </c>
@@ -15698,7 +15668,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="879" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A879" s="2" t="s">
         <v>553</v>
       </c>
@@ -15709,7 +15679,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="880" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A880" s="2" t="s">
         <v>560</v>
       </c>
@@ -15720,7 +15690,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="881" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A881" s="2" t="s">
         <v>583</v>
       </c>
@@ -15731,7 +15701,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="882" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A882" s="2" t="s">
         <v>72</v>
       </c>
@@ -15742,7 +15712,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="883" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A883" s="2" t="s">
         <v>597</v>
       </c>
@@ -15753,7 +15723,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="884" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A884" s="2" t="s">
         <v>604</v>
       </c>
@@ -15764,7 +15734,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="885" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A885" s="2" t="s">
         <v>606</v>
       </c>
@@ -15775,7 +15745,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="886" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A886" s="2" t="s">
         <v>653</v>
       </c>
@@ -15786,7 +15756,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="887" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A887" s="2" t="s">
         <v>661</v>
       </c>
@@ -15797,7 +15767,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="888" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A888" s="2" t="s">
         <v>677</v>
       </c>
@@ -15808,7 +15778,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="889" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A889" s="2" t="s">
         <v>14</v>
       </c>
@@ -15819,7 +15789,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="890" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A890" s="2" t="s">
         <v>712</v>
       </c>
@@ -15830,7 +15800,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="891" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A891" s="2" t="s">
         <v>733</v>
       </c>
@@ -15841,7 +15811,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="892" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A892" s="2" t="s">
         <v>741</v>
       </c>
@@ -15852,7 +15822,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="893" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A893" s="2" t="s">
         <v>761</v>
       </c>
@@ -15863,7 +15833,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="894" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A894" s="2" t="s">
         <v>783</v>
       </c>
@@ -15874,7 +15844,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="895" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A895" s="2" t="s">
         <v>814</v>
       </c>
@@ -15885,7 +15855,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="896" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A896" s="2" t="s">
         <v>817</v>
       </c>
@@ -15896,7 +15866,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="897" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A897" s="2" t="s">
         <v>820</v>
       </c>
@@ -15907,7 +15877,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="898" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A898" s="2" t="s">
         <v>827</v>
       </c>
@@ -15918,7 +15888,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="899" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A899" s="2" t="s">
         <v>94</v>
       </c>
@@ -15929,7 +15899,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="900" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A900" s="2" t="s">
         <v>843</v>
       </c>
@@ -15940,7 +15910,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="901" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A901" s="2" t="s">
         <v>848</v>
       </c>
@@ -15951,7 +15921,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="902" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A902" s="2" t="s">
         <v>859</v>
       </c>
@@ -15962,7 +15932,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="903" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A903" s="2" t="s">
         <v>875</v>
       </c>
@@ -15973,7 +15943,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="904" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A904" s="2" t="s">
         <v>886</v>
       </c>
@@ -15984,7 +15954,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="905" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A905" s="2" t="s">
         <v>102</v>
       </c>
@@ -15995,7 +15965,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="906" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A906" s="2" t="s">
         <v>105</v>
       </c>
@@ -16006,7 +15976,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="907" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A907" s="2" t="s">
         <v>934</v>
       </c>
@@ -16017,7 +15987,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="908" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A908" s="2" t="s">
         <v>108</v>
       </c>
@@ -16028,7 +15998,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="909" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A909" s="2" t="s">
         <v>942</v>
       </c>
@@ -16039,7 +16009,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="910" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A910" s="2" t="s">
         <v>943</v>
       </c>
@@ -16050,7 +16020,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="911" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A911" s="2" t="s">
         <v>959</v>
       </c>
@@ -16061,7 +16031,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="912" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A912" s="2" t="s">
         <v>963</v>
       </c>
@@ -16072,7 +16042,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="913" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A913" s="2" t="s">
         <v>984</v>
       </c>
@@ -16083,7 +16053,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="914" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A914" s="2" t="s">
         <v>989</v>
       </c>
@@ -16094,7 +16064,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="915" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A915" s="2" t="s">
         <v>999</v>
       </c>
@@ -16105,7 +16075,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="916" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A916" s="2" t="s">
         <v>1000</v>
       </c>
@@ -16116,7 +16086,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="917" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A917" s="2" t="s">
         <v>1008</v>
       </c>
@@ -16127,7 +16097,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="918" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A918" s="2" t="s">
         <v>1012</v>
       </c>
@@ -16140,9 +16110,14 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:C918" xr:uid="{00000000-0009-0000-0000-000003000000}">
+    <filterColumn colId="0">
+      <customFilters>
+        <customFilter operator="notEqual" val="*P.T*"/>
+      </customFilters>
+    </filterColumn>
     <filterColumn colId="2">
       <filters>
-        <filter val="Vista Switch Center"/>
+        <filter val="Orange County Switch Ctr"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -16157,8 +16132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D2C194C-48AE-4DD8-8625-A7D03D94DD54}">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16199,10 +16174,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>1134</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>1135</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -16223,15 +16198,15 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>1136</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>1137</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -16239,7 +16214,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -16363,17 +16338,17 @@
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
   </sheetData>

--- a/SwCenter Estimate.xlsx
+++ b/SwCenter Estimate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangb2\Documents\GitHub\DMS_Conversion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangb2\Documents\Project\DMS Conversion Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0163BF5B-2ADF-4834-9BD5-E276A07F0241}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55FCFE4-7ACC-4CBA-BCE0-9AB9B47FA180}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15525" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15525" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SAT_Subs" sheetId="6" r:id="rId1"/>
@@ -44,10 +44,28 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={0107D284-917C-4280-B732-89B4F0DA8EE7}</author>
     <author>tc={4B71DF37-0964-4C7D-B0CD-437C9D6A22D8}</author>
   </authors>
   <commentList>
-    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{4B71DF37-0964-4C7D-B0CD-437C9D6A22D8}">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{0107D284-917C-4280-B732-89B4F0DA8EE7}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Irvine - 3297
+Macarthur - 1200
+Crown - 1537
+Borrego - 3286
+Morro - 3300
+Niguel - 3478
+Moulton - 4202
+Las Lomas - 4301
+University - 1848
+Chip - 1824</t>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="1" shapeId="0" xr:uid="{4B71DF37-0964-4C7D-B0CD-437C9D6A22D8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -3425,6 +3443,9 @@
     <t>Devers</t>
   </si>
   <si>
+    <t>10 stations</t>
+  </si>
+  <si>
     <t>2-3 weeks</t>
   </si>
   <si>
@@ -3486,9 +3507,6 @@
   </si>
   <si>
     <t>Hanford 12</t>
-  </si>
-  <si>
-    <t>4129/503</t>
   </si>
 </sst>
 </file>
@@ -3867,6 +3885,18 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C3" dT="2021-02-09T17:22:52.80" personId="{7400B710-C1BF-499B-99C7-ED63E55E21A1}" id="{0107D284-917C-4280-B732-89B4F0DA8EE7}">
+    <text>Irvine - 3297
+Macarthur - 1200
+Crown - 1537
+Borrego - 3286
+Morro - 3300
+Niguel - 3478
+Moulton - 4202
+Las Lomas - 4301
+University - 1848
+Chip - 1824</text>
+  </threadedComment>
   <threadedComment ref="C10" dT="2021-02-09T17:23:31.87" personId="{7400B710-C1BF-499B-99C7-ED63E55E21A1}" id="{4B71DF37-0964-4C7D-B0CD-437C9D6A22D8}">
     <text>Irvine - 3297
 Macarthur - 1200
@@ -4453,10 +4483,10 @@
         <v>11</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="G2" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -4473,7 +4503,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -4494,7 +4524,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -4511,7 +4541,7 @@
         <v>14</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -4528,7 +4558,7 @@
         <v>15</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -4545,7 +4575,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -4562,7 +4592,7 @@
         <v>15</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -4579,7 +4609,7 @@
         <v>16</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -4725,8 +4755,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4766,7 +4796,7 @@
         <v>1041</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>1139</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4938,7 +4968,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -4978,7 +5008,7 @@
         <v>1057</v>
       </c>
       <c r="C29" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -4986,7 +5016,7 @@
         <v>1059</v>
       </c>
       <c r="C30" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -5010,15 +5040,15 @@
         <v>1112</v>
       </c>
       <c r="C33" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C34" t="s">
         <v>1126</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1125</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -5026,7 +5056,7 @@
         <v>1110</v>
       </c>
       <c r="C35" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -5042,7 +5072,7 @@
         <v>1109</v>
       </c>
       <c r="C37" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -5058,7 +5088,7 @@
         <v>1104</v>
       </c>
       <c r="C39" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -5071,7 +5101,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -5999,8 +6029,8 @@
   <sheetPr codeName="Sheet4" filterMode="1"/>
   <dimension ref="A1:C918"/>
   <sheetViews>
-    <sheetView topLeftCell="A503" workbookViewId="0">
-      <selection activeCell="A532" sqref="A532"/>
+    <sheetView topLeftCell="A863" workbookViewId="0">
+      <selection activeCell="C892" sqref="C892"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11433,7 +11463,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="2" t="s">
         <v>201</v>
       </c>
@@ -11444,7 +11474,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="2" t="s">
         <v>216</v>
       </c>
@@ -11455,7 +11485,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="2" t="s">
         <v>234</v>
       </c>
@@ -11466,7 +11496,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="2" t="s">
         <v>17</v>
       </c>
@@ -11477,7 +11507,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="2" t="s">
         <v>240</v>
       </c>
@@ -11488,7 +11518,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="2" t="s">
         <v>43</v>
       </c>
@@ -11510,7 +11540,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="2" t="s">
         <v>281</v>
       </c>
@@ -11521,7 +11551,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="2" t="s">
         <v>287</v>
       </c>
@@ -11532,7 +11562,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="2" t="s">
         <v>294</v>
       </c>
@@ -11554,7 +11584,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="2" t="s">
         <v>298</v>
       </c>
@@ -11565,7 +11595,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="2" t="s">
         <v>301</v>
       </c>
@@ -11576,7 +11606,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="2" t="s">
         <v>307</v>
       </c>
@@ -11587,7 +11617,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="2" t="s">
         <v>309</v>
       </c>
@@ -11598,7 +11628,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="2" t="s">
         <v>319</v>
       </c>
@@ -11609,7 +11639,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="2" t="s">
         <v>328</v>
       </c>
@@ -11620,7 +11650,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="2" t="s">
         <v>340</v>
       </c>
@@ -11631,7 +11661,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="2" t="s">
         <v>48</v>
       </c>
@@ -11642,7 +11672,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="2" t="s">
         <v>361</v>
       </c>
@@ -11653,7 +11683,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="2" t="s">
         <v>367</v>
       </c>
@@ -11664,7 +11694,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="2" t="s">
         <v>393</v>
       </c>
@@ -11675,7 +11705,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="2" t="s">
         <v>404</v>
       </c>
@@ -11697,7 +11727,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="2" t="s">
         <v>449</v>
       </c>
@@ -11708,7 +11738,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="2" t="s">
         <v>450</v>
       </c>
@@ -11719,7 +11749,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" s="2" t="s">
         <v>241</v>
       </c>
@@ -11730,7 +11760,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="2" t="s">
         <v>462</v>
       </c>
@@ -11752,7 +11782,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="2" t="s">
         <v>470</v>
       </c>
@@ -11763,7 +11793,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="2" t="s">
         <v>476</v>
       </c>
@@ -11774,7 +11804,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="2" t="s">
         <v>494</v>
       </c>
@@ -11785,7 +11815,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" s="2" t="s">
         <v>496</v>
       </c>
@@ -11796,7 +11826,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" s="2" t="s">
         <v>509</v>
       </c>
@@ -11807,7 +11837,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" s="2" t="s">
         <v>510</v>
       </c>
@@ -11829,7 +11859,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" s="2" t="s">
         <v>530</v>
       </c>
@@ -11851,7 +11881,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" s="2" t="s">
         <v>572</v>
       </c>
@@ -11884,7 +11914,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" s="2" t="s">
         <v>296</v>
       </c>
@@ -11906,7 +11936,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" s="2" t="s">
         <v>611</v>
       </c>
@@ -11917,7 +11947,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" s="2" t="s">
         <v>613</v>
       </c>
@@ -11928,7 +11958,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" s="2" t="s">
         <v>614</v>
       </c>
@@ -11939,7 +11969,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" s="2" t="s">
         <v>616</v>
       </c>
@@ -11950,7 +11980,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" s="2" t="s">
         <v>620</v>
       </c>
@@ -11961,7 +11991,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" s="2" t="s">
         <v>635</v>
       </c>
@@ -11983,7 +12013,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" s="2" t="s">
         <v>655</v>
       </c>
@@ -12005,7 +12035,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" s="2" t="s">
         <v>665</v>
       </c>
@@ -12016,7 +12046,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" s="2" t="s">
         <v>688</v>
       </c>
@@ -12027,7 +12057,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" s="2" t="s">
         <v>702</v>
       </c>
@@ -12038,7 +12068,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" s="2" t="s">
         <v>703</v>
       </c>
@@ -12049,7 +12079,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" s="2" t="s">
         <v>727</v>
       </c>
@@ -12060,7 +12090,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" s="2" t="s">
         <v>748</v>
       </c>
@@ -12071,7 +12101,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" s="2" t="s">
         <v>288</v>
       </c>
@@ -12082,7 +12112,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" s="2" t="s">
         <v>754</v>
       </c>
@@ -12093,7 +12123,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" s="2" t="s">
         <v>756</v>
       </c>
@@ -12104,7 +12134,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" s="2" t="s">
         <v>87</v>
       </c>
@@ -12115,7 +12145,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" s="2" t="s">
         <v>772</v>
       </c>
@@ -12126,7 +12156,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" s="2" t="s">
         <v>775</v>
       </c>
@@ -12137,7 +12167,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" s="2" t="s">
         <v>795</v>
       </c>
@@ -12148,7 +12178,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" s="2" t="s">
         <v>138</v>
       </c>
@@ -12159,7 +12189,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" s="2" t="s">
         <v>202</v>
       </c>
@@ -12170,7 +12200,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" s="2" t="s">
         <v>877</v>
       </c>
@@ -12181,7 +12211,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" s="2" t="s">
         <v>890</v>
       </c>
@@ -12192,7 +12222,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" s="2" t="s">
         <v>141</v>
       </c>
@@ -12214,7 +12244,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" s="2" t="s">
         <v>913</v>
       </c>
@@ -12225,7 +12255,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" s="2" t="s">
         <v>917</v>
       </c>
@@ -12236,7 +12266,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" s="2" t="s">
         <v>922</v>
       </c>
@@ -12247,7 +12277,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" s="2" t="s">
         <v>926</v>
       </c>
@@ -12258,7 +12288,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" s="2" t="s">
         <v>929</v>
       </c>
@@ -12269,7 +12299,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" s="2" t="s">
         <v>949</v>
       </c>
@@ -12280,7 +12310,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" s="2" t="s">
         <v>968</v>
       </c>
@@ -12291,7 +12321,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" s="2" t="s">
         <v>280</v>
       </c>
@@ -12302,7 +12332,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" s="2" t="s">
         <v>973</v>
       </c>
@@ -12324,7 +12354,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" s="2" t="s">
         <v>980</v>
       </c>
@@ -12335,7 +12365,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" s="2" t="s">
         <v>983</v>
       </c>
@@ -12368,7 +12398,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" s="2" t="s">
         <v>1007</v>
       </c>
@@ -15261,7 +15291,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="842" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A842" s="2" t="s">
         <v>177</v>
       </c>
@@ -15272,7 +15302,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="843" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A843" s="2" t="s">
         <v>185</v>
       </c>
@@ -15283,7 +15313,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="844" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A844" s="2" t="s">
         <v>190</v>
       </c>
@@ -15294,7 +15324,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="845" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A845" s="2" t="s">
         <v>205</v>
       </c>
@@ -15305,7 +15335,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="846" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A846" s="2" t="s">
         <v>208</v>
       </c>
@@ -15316,7 +15346,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="847" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A847" s="2" t="s">
         <v>210</v>
       </c>
@@ -15327,7 +15357,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="848" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A848" s="2" t="s">
         <v>242</v>
       </c>
@@ -15338,7 +15368,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="849" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A849" s="2" t="s">
         <v>248</v>
       </c>
@@ -15349,7 +15379,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="850" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A850" s="2" t="s">
         <v>270</v>
       </c>
@@ -15360,7 +15390,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="851" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A851" s="2" t="s">
         <v>271</v>
       </c>
@@ -15371,7 +15401,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="852" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A852" s="2" t="s">
         <v>299</v>
       </c>
@@ -15382,7 +15412,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="853" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A853" s="2" t="s">
         <v>306</v>
       </c>
@@ -15393,7 +15423,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="854" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A854" s="2" t="s">
         <v>316</v>
       </c>
@@ -15404,7 +15434,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="855" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A855" s="2" t="s">
         <v>323</v>
       </c>
@@ -15415,7 +15445,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="856" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A856" s="2" t="s">
         <v>18</v>
       </c>
@@ -15426,7 +15456,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="857" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A857" s="2" t="s">
         <v>336</v>
       </c>
@@ -15437,7 +15467,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="858" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A858" s="2" t="s">
         <v>353</v>
       </c>
@@ -15448,7 +15478,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="859" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A859" s="2" t="s">
         <v>363</v>
       </c>
@@ -15459,7 +15489,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="860" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A860" s="2" t="s">
         <v>382</v>
       </c>
@@ -15470,7 +15500,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="861" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A861" s="2" t="s">
         <v>386</v>
       </c>
@@ -15481,7 +15511,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="862" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A862" s="2" t="s">
         <v>394</v>
       </c>
@@ -15492,7 +15522,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="863" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A863" s="2" t="s">
         <v>396</v>
       </c>
@@ -15503,7 +15533,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="864" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A864" s="2" t="s">
         <v>405</v>
       </c>
@@ -15514,7 +15544,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="865" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A865" s="2" t="s">
         <v>413</v>
       </c>
@@ -15525,7 +15555,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="866" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A866" s="2" t="s">
         <v>417</v>
       </c>
@@ -15536,7 +15566,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="867" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A867" s="2" t="s">
         <v>420</v>
       </c>
@@ -15547,7 +15577,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="868" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A868" s="2" t="s">
         <v>452</v>
       </c>
@@ -15558,7 +15588,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="869" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A869" s="2" t="s">
         <v>178</v>
       </c>
@@ -15569,7 +15599,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="870" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A870" s="2" t="s">
         <v>484</v>
       </c>
@@ -15580,7 +15610,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="871" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A871" s="2" t="s">
         <v>487</v>
       </c>
@@ -15591,7 +15621,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="872" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A872" s="2" t="s">
         <v>124</v>
       </c>
@@ -15602,7 +15632,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="873" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A873" s="2" t="s">
         <v>507</v>
       </c>
@@ -15613,7 +15643,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="874" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A874" s="2" t="s">
         <v>511</v>
       </c>
@@ -15624,7 +15654,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="875" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A875" s="2" t="s">
         <v>523</v>
       </c>
@@ -15635,7 +15665,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="876" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A876" s="2" t="s">
         <v>547</v>
       </c>
@@ -15646,7 +15676,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="877" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A877" s="2" t="s">
         <v>548</v>
       </c>
@@ -15657,7 +15687,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="878" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A878" s="2" t="s">
         <v>551</v>
       </c>
@@ -15668,7 +15698,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="879" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A879" s="2" t="s">
         <v>553</v>
       </c>
@@ -15679,7 +15709,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="880" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A880" s="2" t="s">
         <v>560</v>
       </c>
@@ -15690,7 +15720,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="881" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A881" s="2" t="s">
         <v>583</v>
       </c>
@@ -15701,7 +15731,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="882" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A882" s="2" t="s">
         <v>72</v>
       </c>
@@ -15712,7 +15742,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="883" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A883" s="2" t="s">
         <v>597</v>
       </c>
@@ -15723,7 +15753,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="884" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A884" s="2" t="s">
         <v>604</v>
       </c>
@@ -15734,7 +15764,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="885" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A885" s="2" t="s">
         <v>606</v>
       </c>
@@ -15745,7 +15775,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="886" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A886" s="2" t="s">
         <v>653</v>
       </c>
@@ -15756,7 +15786,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="887" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A887" s="2" t="s">
         <v>661</v>
       </c>
@@ -15767,7 +15797,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="888" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A888" s="2" t="s">
         <v>677</v>
       </c>
@@ -15778,7 +15808,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="889" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A889" s="2" t="s">
         <v>14</v>
       </c>
@@ -15789,7 +15819,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="890" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A890" s="2" t="s">
         <v>712</v>
       </c>
@@ -15800,7 +15830,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="891" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A891" s="2" t="s">
         <v>733</v>
       </c>
@@ -15811,7 +15841,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="892" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A892" s="2" t="s">
         <v>741</v>
       </c>
@@ -15822,7 +15852,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="893" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A893" s="2" t="s">
         <v>761</v>
       </c>
@@ -15833,7 +15863,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="894" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A894" s="2" t="s">
         <v>783</v>
       </c>
@@ -15844,7 +15874,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="895" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A895" s="2" t="s">
         <v>814</v>
       </c>
@@ -15855,7 +15885,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="896" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A896" s="2" t="s">
         <v>817</v>
       </c>
@@ -15866,7 +15896,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="897" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A897" s="2" t="s">
         <v>820</v>
       </c>
@@ -15877,7 +15907,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="898" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A898" s="2" t="s">
         <v>827</v>
       </c>
@@ -15888,7 +15918,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="899" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A899" s="2" t="s">
         <v>94</v>
       </c>
@@ -15899,7 +15929,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="900" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A900" s="2" t="s">
         <v>843</v>
       </c>
@@ -15910,7 +15940,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="901" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A901" s="2" t="s">
         <v>848</v>
       </c>
@@ -15921,7 +15951,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="902" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A902" s="2" t="s">
         <v>859</v>
       </c>
@@ -15932,7 +15962,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="903" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A903" s="2" t="s">
         <v>875</v>
       </c>
@@ -15943,7 +15973,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="904" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A904" s="2" t="s">
         <v>886</v>
       </c>
@@ -15954,7 +15984,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="905" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A905" s="2" t="s">
         <v>102</v>
       </c>
@@ -15965,7 +15995,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="906" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A906" s="2" t="s">
         <v>105</v>
       </c>
@@ -15976,7 +16006,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="907" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A907" s="2" t="s">
         <v>934</v>
       </c>
@@ -15987,7 +16017,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="908" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A908" s="2" t="s">
         <v>108</v>
       </c>
@@ -15998,7 +16028,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="909" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A909" s="2" t="s">
         <v>942</v>
       </c>
@@ -16009,7 +16039,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="910" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A910" s="2" t="s">
         <v>943</v>
       </c>
@@ -16020,7 +16050,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="911" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A911" s="2" t="s">
         <v>959</v>
       </c>
@@ -16031,7 +16061,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="912" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A912" s="2" t="s">
         <v>963</v>
       </c>
@@ -16042,7 +16072,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="913" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A913" s="2" t="s">
         <v>984</v>
       </c>
@@ -16053,7 +16083,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="914" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A914" s="2" t="s">
         <v>989</v>
       </c>
@@ -16064,7 +16094,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="915" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A915" s="2" t="s">
         <v>999</v>
       </c>
@@ -16075,7 +16105,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="916" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A916" s="2" t="s">
         <v>1000</v>
       </c>
@@ -16086,7 +16116,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="917" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A917" s="2" t="s">
         <v>1008</v>
       </c>
@@ -16097,7 +16127,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="918" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A918" s="2" t="s">
         <v>1012</v>
       </c>
@@ -16110,14 +16140,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:C918" xr:uid="{00000000-0009-0000-0000-000003000000}">
-    <filterColumn colId="0">
-      <customFilters>
-        <customFilter operator="notEqual" val="*P.T*"/>
-      </customFilters>
-    </filterColumn>
     <filterColumn colId="2">
       <filters>
-        <filter val="Orange County Switch Ctr"/>
+        <filter val="Vista Switch Center"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -16132,8 +16157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D2C194C-48AE-4DD8-8625-A7D03D94DD54}">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16174,10 +16199,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -16198,15 +16223,15 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -16214,7 +16239,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -16338,17 +16363,17 @@
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
     </row>
   </sheetData>
